--- a/productmaster.xlsx
+++ b/productmaster.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kaushalya.tech\consultancy\operative\training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12ACE1CA-990A-4683-8435-BCE647C6430E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C2D2BC-F848-4DF4-8D05-5FC69AD5B9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Product Master</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>&lt;Update&gt;</t>
+  </si>
+  <si>
+    <t>Apply Bootstrap</t>
   </si>
 </sst>
 </file>
@@ -122,10 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:J12"/>
+  <dimension ref="D1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,6 +524,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="14" spans="4:10" x14ac:dyDescent="0.35">
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
